--- a/spreadsheet.xlsx
+++ b/spreadsheet.xlsx
@@ -1,194 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anish\ComputerScience\Computer science\Machine Learning\ai_agents\projects\system_agent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3387E4E-62E8-43A9-8127-5CE34AED5175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Company</t>
   </si>
   <si>
-    <t>AI Focus Areas</t>
-  </si>
-  <si>
-    <t>Key AI Products/Services</t>
-  </si>
-  <si>
-    <t>Market Cap (USD Billions)</t>
-  </si>
-  <si>
-    <t>Recent AI Innovations</t>
-  </si>
-  <si>
-    <t>Notable AI Acquisitions</t>
-  </si>
-  <si>
-    <t>Google (Alphabet)</t>
+    <t>Primary AI Focus</t>
+  </si>
+  <si>
+    <t>Key AI Innovations</t>
+  </si>
+  <si>
+    <t>Market Capitalization (approx. USD billions)</t>
+  </si>
+  <si>
+    <t>Estimated AI Revenue Contribution (approx. USD billions)</t>
+  </si>
+  <si>
+    <t>Google (Alphabet Inc.)</t>
   </si>
   <si>
     <t>Microsoft</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Meta Platforms (Facebook)</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>OpenAI</t>
   </si>
   <si>
-    <t>Nvidia</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Meta Platforms</t>
-  </si>
-  <si>
-    <t>IBM</t>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
   </si>
   <si>
     <t>Tesla</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Baidu</t>
-  </si>
-  <si>
-    <t>Search, Cloud AI, Autonomous Vehicles (Waymo), AI Research (DeepMind)</t>
-  </si>
-  <si>
-    <t>Cloud AI, AI in Productivity Software, Gaming AI, AI Research</t>
-  </si>
-  <si>
-    <t>Generative AI, Large Language Models, AI Research</t>
-  </si>
-  <si>
-    <t>AI Hardware (GPUs), AI Software Platforms, AI Computing</t>
-  </si>
-  <si>
-    <t>E-commerce AI, Cloud AI (AWS), Voice AI, Logistics AI</t>
-  </si>
-  <si>
-    <t>Social Media AI, Metaverse AI, AI Research</t>
-  </si>
-  <si>
-    <t>Enterprise AI, Hybrid Cloud AI, AI for Business Automation</t>
-  </si>
-  <si>
-    <t>Autonomous Driving (FSD), Robotics, AI for Manufacturing</t>
-  </si>
-  <si>
-    <t>On-device AI, AI in Consumer Electronics, Voice AI</t>
-  </si>
-  <si>
-    <t>Chinese AI Market, Search AI, Autonomous Vehicles, AI Platforms</t>
-  </si>
-  <si>
-    <t>Google AI Platform, TensorFlow, Google Assistant, Waymo Driver</t>
-  </si>
-  <si>
-    <t>Azure AI, Microsoft Copilot, OpenAI Partnership, Xbox AI</t>
-  </si>
-  <si>
-    <t>ChatGPT, DALL-E, GPT-4, Codex</t>
-  </si>
-  <si>
-    <t>Nvidia GPUs (H100, A100), CUDA, AI Enterprise Software, Omniverse</t>
-  </si>
-  <si>
-    <t>AWS AI/ML Services, Alexa, Amazon Go, Amazon Warehouse Robotics</t>
-  </si>
-  <si>
-    <t>AI for Content Ranking, Meta AI Research (FAIR), AR/VR AI, Llama models</t>
-  </si>
-  <si>
-    <t>IBM Watson, Red Hat AI, AI for cybersecurity, AI for data analytics</t>
-  </si>
-  <si>
-    <t>Full Self-Driving (FSD) Beta, Optimus Robot, Dojo Supercomputer</t>
-  </si>
-  <si>
-    <t>Siri, Core ML, AI for iPhone features, Apple Watch AI</t>
-  </si>
-  <si>
-    <t>Baidu Search, Apollo (autonomous driving platform), Ernie Bot, Baidu AI Cloud</t>
-  </si>
-  <si>
-    <t>Large Language Models (PaLM, Gemini), AI for Science, Generative AI tools</t>
-  </si>
-  <si>
-    <t>Copilot integration across products, Advanced large language models via OpenAI, AI for cybersecurity</t>
-  </si>
-  <si>
-    <t>Advanced multimodal AI capabilities, Continual improvement of LLMs, API access for developers</t>
-  </si>
-  <si>
-    <t>Next-generation AI accelerators, Software for AI development and deployment, AI-powered simulation</t>
-  </si>
-  <si>
-    <t>Generative AI for e-commerce, Advanced recommendation systems, AI for warehouse automation</t>
-  </si>
-  <si>
-    <t>Open-source LLMs (Llama 2), AI for virtual reality, Advanced content moderation AI</t>
-  </si>
-  <si>
-    <t>AI for hybrid cloud environments, Quantum computing for AI, AI-powered industry solutions</t>
-  </si>
-  <si>
-    <t>Neural networks for autonomous driving, Advances in humanoid robotics, AI training infrastructure</t>
-  </si>
-  <si>
-    <t>On-device machine learning for privacy, AI for computational photography, Neural Engine advancements</t>
-  </si>
-  <si>
-    <t>Large language models for Chinese market, Autonomous driving advancements, AI for smart cities</t>
-  </si>
-  <si>
-    <t>DeepMind, Mandiant</t>
-  </si>
-  <si>
-    <t>OpenAI (significant stake/partnership), Nuance Communications</t>
-  </si>
-  <si>
-    <t>None (primarily funded)</t>
-  </si>
-  <si>
-    <t>Arm Holdings (acquisition attempt failed, but significant partnership)</t>
-  </si>
-  <si>
-    <t>Kiva Systems (now Amazon Robotics)</t>
-  </si>
-  <si>
-    <t>CTRL-labs (for brain-computer interfaces)</t>
-  </si>
-  <si>
-    <t>Red Hat, The Weather Company</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Prime AI, Lattice (AI chips)</t>
-  </si>
-  <si>
-    <t>Global Key Solutions</t>
+    <t>AI Research &amp; Development, Cloud AI, AI Products (Search, Assistant, Waymo)</t>
+  </si>
+  <si>
+    <t>Cloud AI (Azure AI), AI in Productivity Software, AI Research</t>
+  </si>
+  <si>
+    <t>Cloud AI (AWS AI), AI in E-commerce, AI Assistants (Alexa)</t>
+  </si>
+  <si>
+    <t>AI Hardware (GPUs), AI Software &amp; Platforms</t>
+  </si>
+  <si>
+    <t>AI Research, AI in Social Media, Metaverse AI</t>
+  </si>
+  <si>
+    <t>Enterprise AI Solutions, AI Consulting, AI Research</t>
+  </si>
+  <si>
+    <t>AI Research &amp; Development, Large Language Models</t>
+  </si>
+  <si>
+    <t>AI in China (Search, Autonomous Driving, Cloud AI)</t>
+  </si>
+  <si>
+    <t>AI in CRM and Business Software</t>
+  </si>
+  <si>
+    <t>AI for Autonomous Driving, Robotics</t>
+  </si>
+  <si>
+    <t>Transformer models, TensorFlow, DeepMind research, AI in search and advertising</t>
+  </si>
+  <si>
+    <t>Azure AI services, OpenAI partnership (GPT models), AI in Office 365 and Windows</t>
+  </si>
+  <si>
+    <t>AWS AI services (SageMaker, Rekognition), AI in logistics and recommendations, Alexa AI</t>
+  </si>
+  <si>
+    <t>GeForce and Data Center GPUs for AI, CUDA platform, AI inference and training acceleration</t>
+  </si>
+  <si>
+    <t>PyTorch, AI for content recommendation and moderation, AI in virtual reality</t>
+  </si>
+  <si>
+    <t>Watson AI, AI for business automation and data analytics, hybrid cloud AI</t>
+  </si>
+  <si>
+    <t>GPT series (GPT-3, GPT-4), DALL-E, ChatGPT, advanced AI models</t>
+  </si>
+  <si>
+    <t>Apollo autonomous driving platform, ERNIE language model, AI cloud services</t>
+  </si>
+  <si>
+    <t>Einstein AI, AI for sales, service, and marketing automation</t>
+  </si>
+  <si>
+    <t>Full Self-Driving (FSD) software, Dojo AI training supercomputer, Optimus robot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +194,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -329,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,14 +491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,208 +521,175 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1800</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
-        <v>1700</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>2100</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>2500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>1400</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
+      <c r="D5">
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>1400</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>900</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D9">
-        <v>700</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="D10">
+        <v>220</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D10">
-        <v>2800</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
       <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
